--- a/Expenses01.xlsx
+++ b/Expenses01.xlsx
@@ -14,210 +14,357 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
-  <si>
-    <t>0.005836700240352204</t>
-  </si>
-  <si>
-    <t>0.008952680299005198</t>
-  </si>
-  <si>
-    <t>0.008909945077703941</t>
-  </si>
-  <si>
-    <t>0.005973374825191319</t>
-  </si>
-  <si>
-    <t>0.0047283540726193105</t>
-  </si>
-  <si>
-    <t>0.003673053770476931</t>
-  </si>
-  <si>
-    <t>0.005304347376193146</t>
-  </si>
-  <si>
-    <t>0.006747844017444999</t>
-  </si>
-  <si>
-    <t>0.00714426630435879</t>
-  </si>
-  <si>
-    <t>0.00891156652677367</t>
-  </si>
-  <si>
-    <t>0.012646747123058683</t>
-  </si>
-  <si>
-    <t>0.08153703594120836</t>
-  </si>
-  <si>
-    <t>0.11851926290560406</t>
-  </si>
-  <si>
-    <t>0.10370778189157888</t>
-  </si>
-  <si>
-    <t>0.28570523510031925</t>
-  </si>
-  <si>
-    <t>0.6613789861596957</t>
-  </si>
-  <si>
-    <t>1.3606607693141013</t>
-  </si>
-  <si>
-    <t>0.13827227096751102</t>
-  </si>
-  <si>
-    <t>0.13269147637948936</t>
-  </si>
-  <si>
-    <t>0.1166047452282562</t>
-  </si>
-  <si>
-    <t>0.14121725040727132</t>
-  </si>
-  <si>
-    <t>0.13683839633920453</t>
-  </si>
-  <si>
-    <t>0.14956688908941382</t>
-  </si>
-  <si>
-    <t>0.15808151503310042</t>
-  </si>
-  <si>
-    <t>0.297602300236856</t>
-  </si>
-  <si>
-    <t>0.19519494789410288</t>
-  </si>
-  <si>
-    <t>0.22227558825383611</t>
-  </si>
-  <si>
-    <t>0.32612039891583283</t>
-  </si>
-  <si>
-    <t>0.4632187277788809</t>
-  </si>
-  <si>
-    <t>0.779542636679772</t>
-  </si>
-  <si>
-    <t>0.7521926657891012</t>
-  </si>
-  <si>
-    <t>1.2653093555250174</t>
-  </si>
-  <si>
-    <t>2.4474623030803984</t>
-  </si>
-  <si>
-    <t>3.263060081326823</t>
-  </si>
-  <si>
-    <t>3.0082773475426535e-06</t>
-  </si>
-  <si>
-    <t>4.3982805573150535e-06</t>
-  </si>
-  <si>
-    <t>4.13181691865345e-06</t>
-  </si>
-  <si>
-    <t>3.4484795528781886e-06</t>
-  </si>
-  <si>
-    <t>3.4502055919838915e-06</t>
-  </si>
-  <si>
-    <t>2.9368868573202283e-06</t>
-  </si>
-  <si>
-    <t>3.0018946235847743e-06</t>
-  </si>
-  <si>
-    <t>3.700492099760214e-06</t>
-  </si>
-  <si>
-    <t>3.841332384629e-06</t>
-  </si>
-  <si>
-    <t>4.133320887586457e-06</t>
-  </si>
-  <si>
-    <t>5.680845574112498e-06</t>
-  </si>
-  <si>
-    <t>3.135643269284379e-05</t>
-  </si>
-  <si>
-    <t>4.530998420073514e-05</t>
-  </si>
-  <si>
-    <t>3.997982478258154e-05</t>
-  </si>
-  <si>
-    <t>0.0001069813687104477</t>
-  </si>
-  <si>
-    <t>0.0002457424015438979</t>
-  </si>
-  <si>
-    <t>0.0005068155040480004</t>
-  </si>
-  <si>
-    <t>5.167170502469965e-05</t>
-  </si>
-  <si>
-    <t>5.0160462149362e-05</t>
-  </si>
-  <si>
-    <t>4.371695681982381e-05</t>
-  </si>
-  <si>
-    <t>5.275561380195962e-05</t>
-  </si>
-  <si>
-    <t>5.1158623298701356e-05</t>
-  </si>
-  <si>
-    <t>5.5923907173989486e-05</t>
-  </si>
-  <si>
-    <t>5.907582574178264e-05</t>
-  </si>
-  <si>
-    <t>0.00011043197554160334</t>
-  </si>
-  <si>
-    <t>7.121571503829772e-05</t>
-  </si>
-  <si>
-    <t>8.345563762210723e-05</t>
-  </si>
-  <si>
-    <t>0.0001219653884832807</t>
-  </si>
-  <si>
-    <t>0.00017151950970281684</t>
-  </si>
-  <si>
-    <t>0.000288686953973769</t>
-  </si>
-  <si>
-    <t>0.00028023433084852623</t>
-  </si>
-  <si>
-    <t>0.0004685417267945319</t>
-  </si>
-  <si>
-    <t>0.000907036801744997</t>
-  </si>
-  <si>
-    <t>0.0012125680906781148</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="117">
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>368</t>
+  </si>
+  <si>
+    <t>389</t>
+  </si>
+  <si>
+    <t>383</t>
+  </si>
+  <si>
+    <t>364</t>
+  </si>
+  <si>
+    <t>594</t>
+  </si>
+  <si>
+    <t>1098</t>
+  </si>
+  <si>
+    <t>1545</t>
+  </si>
+  <si>
+    <t>1062</t>
+  </si>
+  <si>
+    <t>1824</t>
+  </si>
+  <si>
+    <t>1621</t>
+  </si>
+  <si>
+    <t>1858</t>
+  </si>
+  <si>
+    <t>2499</t>
+  </si>
+  <si>
+    <t>4694</t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>388</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t>473</t>
+  </si>
+  <si>
+    <t>394</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>453</t>
+  </si>
+  <si>
+    <t>571</t>
+  </si>
+  <si>
+    <t>676</t>
+  </si>
+  <si>
+    <t>730</t>
+  </si>
+  <si>
+    <t>1666</t>
+  </si>
+  <si>
+    <t>1258</t>
+  </si>
+  <si>
+    <t>1386</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>4572</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>767</t>
+  </si>
+  <si>
+    <t>1784</t>
+  </si>
+  <si>
+    <t>3657</t>
+  </si>
+  <si>
+    <t>371</t>
+  </si>
+  <si>
+    <t>1137</t>
+  </si>
+  <si>
+    <t>433</t>
+  </si>
+  <si>
+    <t>607</t>
+  </si>
+  <si>
+    <t>687</t>
+  </si>
+  <si>
+    <t>2485</t>
+  </si>
+  <si>
+    <t>12879</t>
+  </si>
+  <si>
+    <t>11212</t>
+  </si>
+  <si>
+    <t>13992</t>
+  </si>
+  <si>
+    <t>20015</t>
+  </si>
+  <si>
+    <t>28379</t>
+  </si>
+  <si>
+    <t>31897</t>
+  </si>
+  <si>
+    <t>17698</t>
+  </si>
+  <si>
+    <t>19947</t>
+  </si>
+  <si>
+    <t>18606</t>
+  </si>
+  <si>
+    <t>12927</t>
+  </si>
+  <si>
+    <t>15221</t>
+  </si>
+  <si>
+    <t>427</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>1677</t>
+  </si>
+  <si>
+    <t>864</t>
+  </si>
+  <si>
+    <t>624</t>
+  </si>
+  <si>
+    <t>716</t>
+  </si>
+  <si>
+    <t>894</t>
+  </si>
+  <si>
+    <t>1732</t>
+  </si>
+  <si>
+    <t>2027</t>
+  </si>
+  <si>
+    <t>2326</t>
+  </si>
+  <si>
+    <t>4247</t>
+  </si>
+  <si>
+    <t>3837</t>
+  </si>
+  <si>
+    <t>4987</t>
+  </si>
+  <si>
+    <t>6029</t>
+  </si>
+  <si>
+    <t>9039</t>
+  </si>
+  <si>
+    <t>8789</t>
+  </si>
+  <si>
+    <t>374</t>
+  </si>
+  <si>
+    <t>355</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>382</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>806</t>
+  </si>
+  <si>
+    <t>539</t>
+  </si>
+  <si>
+    <t>596</t>
+  </si>
+  <si>
+    <t>876</t>
+  </si>
+  <si>
+    <t>1255</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>3421</t>
+  </si>
+  <si>
+    <t>6608</t>
+  </si>
+  <si>
+    <t>8785</t>
+  </si>
+  <si>
+    <t>33209</t>
+  </si>
+  <si>
+    <t>50040</t>
+  </si>
+  <si>
+    <t>39460</t>
+  </si>
+  <si>
+    <t>79803</t>
+  </si>
+  <si>
+    <t>112978</t>
+  </si>
+  <si>
+    <t>121649</t>
+  </si>
+  <si>
+    <t>154412</t>
+  </si>
+  <si>
+    <t>130201</t>
+  </si>
+  <si>
+    <t>116576</t>
+  </si>
+  <si>
+    <t>173007</t>
+  </si>
+  <si>
+    <t>154380</t>
+  </si>
+  <si>
+    <t>184079</t>
+  </si>
+  <si>
+    <t>187548</t>
+  </si>
+  <si>
+    <t>186988</t>
+  </si>
+  <si>
+    <t>209980</t>
+  </si>
+  <si>
+    <t>256396</t>
+  </si>
+  <si>
+    <t>351583</t>
   </si>
 </sst>
 </file>
@@ -549,7 +696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -690,81 +837,240 @@
         <v>42</v>
       </c>
       <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
         <v>43</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>44</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>45</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>46</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>47</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>48</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>49</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>52</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>53</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>54</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>55</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>56</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>57</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>58</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>59</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>60</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>61</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>62</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>63</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>64</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>65</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>66</v>
       </c>
-      <c r="Q4" t="s">
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
         <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="s">
+        <v>79</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" t="s">
+        <v>95</v>
+      </c>
+      <c r="N6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P6" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M7" t="s">
+        <v>112</v>
+      </c>
+      <c r="N7" t="s">
+        <v>113</v>
+      </c>
+      <c r="O7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
